--- a/NewGrades.xlsx
+++ b/NewGrades.xlsx
@@ -27,7 +27,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="0099CCFF"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -551,7 +551,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="B7">
